--- a/docs/Throughput.xlsx
+++ b/docs/Throughput.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\School\CSC-445\Measuring-Networks\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darki\Documents\School\2018-Spring\CSC-445\Project-1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pi to Altair" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -564,7 +563,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -641,6 +639,7 @@
         <c:axId val="609221832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -684,7 +683,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -808,68 +806,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Laptop(LTE) to Pi: 1MB</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1251,7 +1188,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1376,7 +1312,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1531,7 +1466,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1945,7 +1879,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2065,7 +1998,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2220,7 +2152,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2634,7 +2565,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2754,7 +2684,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2909,7 +2838,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3323,7 +3251,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3400,6 +3327,7 @@
         <c:axId val="632012712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3443,7 +3371,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3598,7 +3525,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4012,7 +3938,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4089,6 +4014,7 @@
         <c:axId val="653970344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4107,7 +4033,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4231,68 +4156,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Desktop(Ethernet) to Pi: 1MB</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4676,7 +4540,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4753,6 +4616,7 @@
         <c:axId val="606313360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4796,7 +4660,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4951,7 +4814,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5363,7 +5225,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5440,6 +5301,7 @@
         <c:axId val="657579104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5483,7 +5345,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5638,7 +5499,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6050,7 +5910,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6127,6 +5986,7 @@
         <c:axId val="657492184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6175,7 +6035,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6330,7 +6189,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6742,7 +6600,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6819,6 +6676,7 @@
         <c:axId val="471900488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6862,7 +6720,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6986,96 +6843,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Pi to Altair: 1MB</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -7457,7 +7225,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7577,7 +7344,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7732,7 +7498,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8144,7 +7909,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8221,6 +7985,7 @@
         <c:axId val="608500256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="140"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8264,7 +8029,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8433,7 +8197,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8859,7 +8622,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8979,7 +8741,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9134,7 +8895,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9546,7 +9306,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9666,7 +9425,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9821,7 +9579,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10233,7 +9990,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10353,7 +10109,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18814,13 +18569,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>168729</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18837,20 +18598,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>646339</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>160562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>136069</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18868,19 +18635,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:colOff>643616</xdr:colOff>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>92526</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>156481</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18900,17 +18673,23 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>180973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>156480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18927,20 +18706,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4081</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>174170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>99331</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>149677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18963,19 +18748,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:colOff>609598</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>180973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>58508</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>156480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18993,19 +18784,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>20411</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>31294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>115661</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>6801</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19022,20 +18819,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>642258</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>91168</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19055,17 +18858,23 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>180973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>156480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19083,19 +18892,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>4082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19120,17 +18935,23 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>103322</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>158857</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19148,19 +18969,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>641887</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>3389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>99446</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>162247</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19178,19 +19005,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>617671</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>75230</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>158857</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19209,18 +19042,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>3389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>103322</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>162247</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19238,19 +19077,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>24216</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>48431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>127538</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>29704</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19567,13 +19412,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X102"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P125" sqref="P125"/>
+    <sheetView topLeftCell="A133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R168" sqref="R168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19635,7 +19480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1</v>
       </c>
@@ -19687,7 +19532,7 @@
         <v>1.770483</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>2</v>
       </c>
@@ -19739,7 +19584,7 @@
         <v>1.46556</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>3</v>
       </c>
@@ -19791,7 +19636,7 @@
         <v>1.4503360000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>4</v>
       </c>
@@ -19843,7 +19688,7 @@
         <v>1.3825480000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>5</v>
       </c>
@@ -19895,7 +19740,7 @@
         <v>1.439001</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>6</v>
       </c>
@@ -19947,7 +19792,7 @@
         <v>1.4531849999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>7</v>
       </c>
@@ -19999,7 +19844,7 @@
         <v>1.4696370000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>8</v>
       </c>
@@ -20051,7 +19896,7 @@
         <v>1.455498</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>9</v>
       </c>
@@ -20103,7 +19948,7 @@
         <v>1.4427559999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>10</v>
       </c>
@@ -20155,7 +20000,7 @@
         <v>1.450742</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>11</v>
       </c>
@@ -20207,7 +20052,7 @@
         <v>1.4541839999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>12</v>
       </c>
@@ -20259,7 +20104,7 @@
         <v>1.3779250000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>13</v>
       </c>
@@ -20311,7 +20156,7 @@
         <v>1.397456</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>14</v>
       </c>
@@ -20363,7 +20208,7 @@
         <v>0.97550000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>15</v>
       </c>
@@ -20415,7 +20260,7 @@
         <v>1.062656</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>16</v>
       </c>
@@ -20467,7 +20312,7 @@
         <v>0.92788000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>17</v>
       </c>
@@ -20519,7 +20364,7 @@
         <v>0.93715400000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>18</v>
       </c>
@@ -20571,7 +20416,7 @@
         <v>0.98589499999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>19</v>
       </c>
@@ -20623,7 +20468,7 @@
         <v>1.185832</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>20</v>
       </c>
@@ -20675,7 +20520,7 @@
         <v>1.1887190000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>21</v>
       </c>
@@ -20727,7 +20572,7 @@
         <v>1.187284</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>22</v>
       </c>
@@ -20779,7 +20624,7 @@
         <v>1.2034180000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>23</v>
       </c>
@@ -20831,7 +20676,7 @@
         <v>1.191484</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>24</v>
       </c>
@@ -20883,7 +20728,7 @@
         <v>1.188763</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>25</v>
       </c>
@@ -20935,7 +20780,7 @@
         <v>1.185346</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>26</v>
       </c>
@@ -20987,7 +20832,7 @@
         <v>1.1832259999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>27</v>
       </c>
@@ -21039,7 +20884,7 @@
         <v>1.1932389999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>28</v>
       </c>
@@ -21091,7 +20936,7 @@
         <v>1.190002</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>29</v>
       </c>
@@ -21143,7 +20988,7 @@
         <v>1.2000869999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>30</v>
       </c>
@@ -21195,7 +21040,7 @@
         <v>1.1969700000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>31</v>
       </c>
@@ -21247,7 +21092,7 @@
         <v>1.190185</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>32</v>
       </c>
@@ -21299,7 +21144,7 @@
         <v>1.19428</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>33</v>
       </c>
@@ -21351,7 +21196,7 @@
         <v>1.197327</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>34</v>
       </c>
@@ -21403,7 +21248,7 @@
         <v>1.173932</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>35</v>
       </c>
@@ -21455,7 +21300,7 @@
         <v>1.168301</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>36</v>
       </c>
@@ -21507,7 +21352,7 @@
         <v>1.1724330000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>37</v>
       </c>
@@ -21559,7 +21404,7 @@
         <v>1.172633</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>38</v>
       </c>
@@ -21611,7 +21456,7 @@
         <v>1.136749</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>39</v>
       </c>
@@ -21663,7 +21508,7 @@
         <v>1.1702570000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>40</v>
       </c>
@@ -21715,7 +21560,7 @@
         <v>1.185608</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>41</v>
       </c>
@@ -21767,7 +21612,7 @@
         <v>1.1843140000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>42</v>
       </c>
@@ -21819,7 +21664,7 @@
         <v>1.1803809999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>43</v>
       </c>
@@ -21871,7 +21716,7 @@
         <v>1.178887</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>44</v>
       </c>
@@ -21923,7 +21768,7 @@
         <v>1.169988</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>45</v>
       </c>
@@ -21975,7 +21820,7 @@
         <v>1.1895789999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>46</v>
       </c>
@@ -22027,7 +21872,7 @@
         <v>1.1894750000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>47</v>
       </c>
@@ -22079,7 +21924,7 @@
         <v>1.1534219999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>48</v>
       </c>
@@ -22131,7 +21976,7 @@
         <v>1.2061519999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>49</v>
       </c>
@@ -22183,7 +22028,7 @@
         <v>1.0726059999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>50</v>
       </c>
@@ -22235,7 +22080,7 @@
         <v>0.99930099999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>51</v>
       </c>
@@ -22287,7 +22132,7 @@
         <v>0.98802900000000005</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>52</v>
       </c>
@@ -22339,7 +22184,7 @@
         <v>0.997332</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>53</v>
       </c>
@@ -22391,7 +22236,7 @@
         <v>0.95335800000000004</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>54</v>
       </c>
@@ -22443,7 +22288,7 @@
         <v>0.98891799999999996</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>55</v>
       </c>
@@ -22495,7 +22340,7 @@
         <v>0.99176699999999995</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>56</v>
       </c>
@@ -22547,7 +22392,7 @@
         <v>1.0088859999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>57</v>
       </c>
@@ -22599,7 +22444,7 @@
         <v>0.96886000000000005</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>58</v>
       </c>
@@ -22651,7 +22496,7 @@
         <v>0.99342900000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>59</v>
       </c>
@@ -22703,7 +22548,7 @@
         <v>0.98977599999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>60</v>
       </c>
@@ -22755,7 +22600,7 @@
         <v>0.96214699999999997</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>61</v>
       </c>
@@ -22807,7 +22652,7 @@
         <v>0.98863800000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>62</v>
       </c>
@@ -22859,7 +22704,7 @@
         <v>0.99674200000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>63</v>
       </c>
@@ -22911,7 +22756,7 @@
         <v>1.137696</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>64</v>
       </c>
@@ -22963,7 +22808,7 @@
         <v>1.1520619999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>65</v>
       </c>
@@ -23015,7 +22860,7 @@
         <v>1.1853739999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>66</v>
       </c>
@@ -23067,7 +22912,7 @@
         <v>1.0433269999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>67</v>
       </c>
@@ -23119,7 +22964,7 @@
         <v>0.99735799999999997</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>68</v>
       </c>
@@ -23171,7 +23016,7 @@
         <v>0.99132299999999995</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>69</v>
       </c>
@@ -23223,7 +23068,7 @@
         <v>0.94952700000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>70</v>
       </c>
@@ -23275,7 +23120,7 @@
         <v>0.94150100000000003</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>71</v>
       </c>
@@ -23327,7 +23172,7 @@
         <v>0.986232</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>72</v>
       </c>
@@ -23379,7 +23224,7 @@
         <v>0.97982199999999997</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>73</v>
       </c>
@@ -23431,7 +23276,7 @@
         <v>1.002289</v>
       </c>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B75">
         <v>74</v>
       </c>
@@ -23483,7 +23328,7 @@
         <v>0.95618000000000003</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>75</v>
       </c>
@@ -23535,7 +23380,7 @@
         <v>0.98701700000000003</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>76</v>
       </c>
@@ -23587,7 +23432,7 @@
         <v>0.99025799999999997</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>77</v>
       </c>
@@ -23639,7 +23484,7 @@
         <v>0.98373299999999997</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B79">
         <v>78</v>
       </c>
@@ -23691,7 +23536,7 @@
         <v>0.92107499999999998</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>79</v>
       </c>
@@ -23743,7 +23588,7 @@
         <v>1.040092</v>
       </c>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>80</v>
       </c>
@@ -23795,7 +23640,7 @@
         <v>1.161157</v>
       </c>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>81</v>
       </c>
@@ -23847,7 +23692,7 @@
         <v>1.1862360000000001</v>
       </c>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>82</v>
       </c>
@@ -23899,7 +23744,7 @@
         <v>1.1868570000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>83</v>
       </c>
@@ -23951,7 +23796,7 @@
         <v>1.193184</v>
       </c>
     </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>84</v>
       </c>
@@ -24003,7 +23848,7 @@
         <v>1.1862919999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>85</v>
       </c>
@@ -24055,7 +23900,7 @@
         <v>1.1863680000000001</v>
       </c>
     </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>86</v>
       </c>
@@ -24107,7 +23952,7 @@
         <v>1.1920759999999999</v>
       </c>
     </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>87</v>
       </c>
@@ -24159,7 +24004,7 @@
         <v>1.181932</v>
       </c>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>88</v>
       </c>
@@ -24211,7 +24056,7 @@
         <v>1.191084</v>
       </c>
     </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>89</v>
       </c>
@@ -24263,7 +24108,7 @@
         <v>1.1770130000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>90</v>
       </c>
@@ -24315,7 +24160,7 @@
         <v>0.92618699999999998</v>
       </c>
     </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>91</v>
       </c>
@@ -24367,7 +24212,7 @@
         <v>0.94423100000000004</v>
       </c>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>92</v>
       </c>
@@ -24419,7 +24264,7 @@
         <v>0.94119900000000001</v>
       </c>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>93</v>
       </c>
@@ -24471,7 +24316,7 @@
         <v>1.1914359999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>94</v>
       </c>
@@ -24523,7 +24368,7 @@
         <v>1.190604</v>
       </c>
     </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>95</v>
       </c>
@@ -24575,7 +24420,7 @@
         <v>1.1851640000000001</v>
       </c>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>96</v>
       </c>
@@ -24627,7 +24472,7 @@
         <v>1.193343</v>
       </c>
     </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>97</v>
       </c>
@@ -24679,7 +24524,7 @@
         <v>1.185702</v>
       </c>
     </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>98</v>
       </c>
@@ -24731,7 +24576,7 @@
         <v>1.1908529999999999</v>
       </c>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>99</v>
       </c>
@@ -24783,7 +24628,7 @@
         <v>1.191103</v>
       </c>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>100</v>
       </c>
@@ -24835,7 +24680,7 @@
         <v>1.1846840000000001</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>4</v>
       </c>
@@ -24902,13 +24747,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U153" sqref="U153"/>
+    <sheetView topLeftCell="O115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE144" sqref="AE144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24970,7 +24815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1</v>
       </c>
@@ -25022,7 +24867,7 @@
         <v>38.470517000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>2</v>
       </c>
@@ -25074,7 +24919,7 @@
         <v>36.580468000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>3</v>
       </c>
@@ -25126,7 +24971,7 @@
         <v>36.066417000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>4</v>
       </c>
@@ -25178,7 +25023,7 @@
         <v>44.984969999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>5</v>
       </c>
@@ -25230,7 +25075,7 @@
         <v>38.978414000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>6</v>
       </c>
@@ -25282,7 +25127,7 @@
         <v>36.964877000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>7</v>
       </c>
@@ -25334,7 +25179,7 @@
         <v>31.882421999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>8</v>
       </c>
@@ -25386,7 +25231,7 @@
         <v>37.822516999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>9</v>
       </c>
@@ -25438,7 +25283,7 @@
         <v>39.200566999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>10</v>
       </c>
@@ -25490,7 +25335,7 @@
         <v>39.338413000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>11</v>
       </c>
@@ -25542,7 +25387,7 @@
         <v>40.237488999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>12</v>
       </c>
@@ -25594,7 +25439,7 @@
         <v>36.653083000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>13</v>
       </c>
@@ -25646,7 +25491,7 @@
         <v>31.77514</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>14</v>
       </c>
@@ -25698,7 +25543,7 @@
         <v>55.984957000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>15</v>
       </c>
@@ -25750,7 +25595,7 @@
         <v>31.800986000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>16</v>
       </c>
@@ -25802,7 +25647,7 @@
         <v>72.167294999999996</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>17</v>
       </c>
@@ -25854,7 +25699,7 @@
         <v>46.541276000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>18</v>
       </c>
@@ -25906,7 +25751,7 @@
         <v>40.103335000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>19</v>
       </c>
@@ -25958,7 +25803,7 @@
         <v>40.197488999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>20</v>
       </c>
@@ -26010,7 +25855,7 @@
         <v>38.207337000000003</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>21</v>
       </c>
@@ -26062,7 +25907,7 @@
         <v>38.524054999999997</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>22</v>
       </c>
@@ -26114,7 +25959,7 @@
         <v>29.838322000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>23</v>
       </c>
@@ -26166,7 +26011,7 @@
         <v>35.928161000000003</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>24</v>
       </c>
@@ -26218,7 +26063,7 @@
         <v>32.486524000000003</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>25</v>
       </c>
@@ -26270,7 +26115,7 @@
         <v>29.687963</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>26</v>
       </c>
@@ -26322,7 +26167,7 @@
         <v>32.092267999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>27</v>
       </c>
@@ -26374,7 +26219,7 @@
         <v>36.830519000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>28</v>
       </c>
@@ -26426,7 +26271,7 @@
         <v>40.128976000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>29</v>
       </c>
@@ -26478,7 +26323,7 @@
         <v>39.601387000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>30</v>
       </c>
@@ -26530,7 +26375,7 @@
         <v>39.200566999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>31</v>
       </c>
@@ -26582,7 +26427,7 @@
         <v>43.9101</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>32</v>
       </c>
@@ -26634,7 +26479,7 @@
         <v>34.656573000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>33</v>
       </c>
@@ -26686,7 +26531,7 @@
         <v>39.895950999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>34</v>
       </c>
@@ -26738,7 +26583,7 @@
         <v>39.747438000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>35</v>
       </c>
@@ -26790,7 +26635,7 @@
         <v>42.708460000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>36</v>
       </c>
@@ -26842,7 +26687,7 @@
         <v>117.771957</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>37</v>
       </c>
@@ -26894,7 +26739,7 @@
         <v>36.739646999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>38</v>
       </c>
@@ -26946,7 +26791,7 @@
         <v>39.975951000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>39</v>
       </c>
@@ -26998,7 +26843,7 @@
         <v>39.002412999999997</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>40</v>
       </c>
@@ -27050,7 +26895,7 @@
         <v>39.719335000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>41</v>
       </c>
@@ -27102,7 +26947,7 @@
         <v>77.288314999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>42</v>
       </c>
@@ -27154,7 +26999,7 @@
         <v>37.491646000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>43</v>
       </c>
@@ -27206,7 +27051,7 @@
         <v>40.066001999999997</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>44</v>
       </c>
@@ -27258,7 +27103,7 @@
         <v>38.470106000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>45</v>
       </c>
@@ -27310,7 +27155,7 @@
         <v>41.080359999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>46</v>
       </c>
@@ -27362,7 +27207,7 @@
         <v>41.749282000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>47</v>
       </c>
@@ -27414,7 +27259,7 @@
         <v>34.320982999999998</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>48</v>
       </c>
@@ -27466,7 +27311,7 @@
         <v>39.419232999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>49</v>
       </c>
@@ -27518,7 +27363,7 @@
         <v>39.983950999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>50</v>
       </c>
@@ -27570,7 +27415,7 @@
         <v>41.995229999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>51</v>
       </c>
@@ -27622,7 +27467,7 @@
         <v>34.171444999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>52</v>
       </c>
@@ -27674,7 +27519,7 @@
         <v>42.501896000000002</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>53</v>
       </c>
@@ -27726,7 +27571,7 @@
         <v>132.59122099999999</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>54</v>
       </c>
@@ -27778,7 +27623,7 @@
         <v>42.869486000000002</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>55</v>
       </c>
@@ -27830,7 +27675,7 @@
         <v>41.679948000000003</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>56</v>
       </c>
@@ -27882,7 +27727,7 @@
         <v>38.552568000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>57</v>
       </c>
@@ -27934,7 +27779,7 @@
         <v>38.763643999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>58</v>
       </c>
@@ -27986,7 +27831,7 @@
         <v>37.928362999999997</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>59</v>
       </c>
@@ -28038,7 +27883,7 @@
         <v>38.919542</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>60</v>
       </c>
@@ -28090,7 +27935,7 @@
         <v>40.600769999999997</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>61</v>
       </c>
@@ -28142,7 +27987,7 @@
         <v>37.852671000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>62</v>
       </c>
@@ -28194,7 +28039,7 @@
         <v>40.256565999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>63</v>
       </c>
@@ -28246,7 +28091,7 @@
         <v>38.879336000000002</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>64</v>
       </c>
@@ -28298,7 +28143,7 @@
         <v>39.166105000000002</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>65</v>
       </c>
@@ -28350,7 +28195,7 @@
         <v>40.601385999999998</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>66</v>
       </c>
@@ -28402,7 +28247,7 @@
         <v>45.621687000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>67</v>
       </c>
@@ -28454,7 +28299,7 @@
         <v>31.759550999999998</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>68</v>
       </c>
@@ -28506,7 +28351,7 @@
         <v>39.515642999999997</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>69</v>
       </c>
@@ -28558,7 +28403,7 @@
         <v>44.709072999999997</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>70</v>
       </c>
@@ -28610,7 +28455,7 @@
         <v>88.661018999999996</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>71</v>
       </c>
@@ -28662,7 +28507,7 @@
         <v>63.716434</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>72</v>
       </c>
@@ -28714,7 +28559,7 @@
         <v>41.077488000000002</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>73</v>
       </c>
@@ -28766,7 +28611,7 @@
         <v>38.13185</v>
       </c>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B75">
         <v>74</v>
       </c>
@@ -28818,7 +28663,7 @@
         <v>38.484465</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>75</v>
       </c>
@@ -28870,7 +28715,7 @@
         <v>39.706822000000003</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>76</v>
       </c>
@@ -28922,7 +28767,7 @@
         <v>41.033180000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>77</v>
       </c>
@@ -28974,7 +28819,7 @@
         <v>38.350926999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B79">
         <v>78</v>
       </c>
@@ -29026,7 +28871,7 @@
         <v>40.179848</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>79</v>
       </c>
@@ -29078,7 +28923,7 @@
         <v>39.657592000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>80</v>
       </c>
@@ -29130,7 +28975,7 @@
         <v>43.902920000000002</v>
       </c>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>81</v>
       </c>
@@ -29182,7 +29027,7 @@
         <v>34.342726999999996</v>
       </c>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>82</v>
       </c>
@@ -29234,7 +29079,7 @@
         <v>38.557901000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>83</v>
       </c>
@@ -29286,7 +29131,7 @@
         <v>37.909081</v>
       </c>
     </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>84</v>
       </c>
@@ -29338,7 +29183,7 @@
         <v>39.306412999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>85</v>
       </c>
@@ -29390,7 +29235,7 @@
         <v>41.959538000000002</v>
       </c>
     </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>86</v>
       </c>
@@ -29442,7 +29287,7 @@
         <v>37.550516999999999</v>
       </c>
     </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>87</v>
       </c>
@@ -29494,7 +29339,7 @@
         <v>38.486722</v>
       </c>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>88</v>
       </c>
@@ -29546,7 +29391,7 @@
         <v>80.161951999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>89</v>
       </c>
@@ -29598,7 +29443,7 @@
         <v>70.863912999999997</v>
       </c>
     </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>90</v>
       </c>
@@ -29650,7 +29495,7 @@
         <v>44.914611000000001</v>
       </c>
     </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>91</v>
       </c>
@@ -29702,7 +29547,7 @@
         <v>37.404260999999998</v>
       </c>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>92</v>
       </c>
@@ -29754,7 +29599,7 @@
         <v>41.132871999999999</v>
       </c>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>93</v>
       </c>
@@ -29806,7 +29651,7 @@
         <v>40.090206999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>94</v>
       </c>
@@ -29858,7 +29703,7 @@
         <v>46.667634</v>
       </c>
     </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>95</v>
       </c>
@@ -29910,7 +29755,7 @@
         <v>30.051655</v>
       </c>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>96</v>
       </c>
@@ -29962,7 +29807,7 @@
         <v>43.226202999999998</v>
       </c>
     </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>97</v>
       </c>
@@ -30014,7 +29859,7 @@
         <v>35.496366000000002</v>
       </c>
     </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>98</v>
       </c>
@@ -30066,7 +29911,7 @@
         <v>42.291024999999998</v>
       </c>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>99</v>
       </c>
@@ -30118,7 +29963,7 @@
         <v>40.386617000000001</v>
       </c>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>100</v>
       </c>
@@ -30170,7 +30015,7 @@
         <v>35.510109999999997</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>4</v>
       </c>
@@ -30237,13 +30082,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X102"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF137" sqref="AF137"/>
+    <sheetView tabSelected="1" topLeftCell="L127" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH134" sqref="AH134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30305,7 +30150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1</v>
       </c>
@@ -30357,7 +30202,7 @@
         <v>5.3464309999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>2</v>
       </c>
@@ -30409,7 +30254,7 @@
         <v>5.1464590000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>3</v>
       </c>
@@ -30461,7 +30306,7 @@
         <v>4.8856330000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>4</v>
       </c>
@@ -30513,7 +30358,7 @@
         <v>5.0351359999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>5</v>
       </c>
@@ -30565,7 +30410,7 @@
         <v>5.4124059999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>6</v>
       </c>
@@ -30617,7 +30462,7 @@
         <v>5.5699550000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>7</v>
       </c>
@@ -30669,7 +30514,7 @@
         <v>8.8338699999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>8</v>
       </c>
@@ -30721,7 +30566,7 @@
         <v>5.2425680000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>9</v>
       </c>
@@ -30773,7 +30618,7 @@
         <v>5.4685790000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>10</v>
       </c>
@@ -30825,7 +30670,7 @@
         <v>4.8325310000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>11</v>
       </c>
@@ -30877,7 +30722,7 @@
         <v>5.111497</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>12</v>
       </c>
@@ -30929,7 +30774,7 @@
         <v>4.8429169999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>13</v>
       </c>
@@ -30981,7 +30826,7 @@
         <v>4.8462820000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>14</v>
       </c>
@@ -31033,7 +30878,7 @@
         <v>3.9485299999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>15</v>
       </c>
@@ -31085,7 +30930,7 @@
         <v>6.6027279999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>16</v>
       </c>
@@ -31137,7 +30982,7 @@
         <v>3.1448390000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>17</v>
       </c>
@@ -31189,7 +31034,7 @@
         <v>5.5560580000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>18</v>
       </c>
@@ -31241,7 +31086,7 @@
         <v>5.246664</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>19</v>
       </c>
@@ -31293,7 +31138,7 @@
         <v>4.4450209999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>20</v>
       </c>
@@ -31345,7 +31190,7 @@
         <v>6.1009700000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>21</v>
       </c>
@@ -31397,7 +31242,7 @@
         <v>4.6714710000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>22</v>
       </c>
@@ -31449,7 +31294,7 @@
         <v>4.756316</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>23</v>
       </c>
@@ -31501,7 +31346,7 @@
         <v>4.5156770000000002</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>24</v>
       </c>
@@ -31553,7 +31398,7 @@
         <v>4.6461639999999997</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>25</v>
       </c>
@@ -31605,7 +31450,7 @@
         <v>5.2020470000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>26</v>
       </c>
@@ -31657,7 +31502,7 @@
         <v>4.8148309999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>27</v>
       </c>
@@ -31709,7 +31554,7 @@
         <v>5.2137500000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>28</v>
       </c>
@@ -31761,7 +31606,7 @@
         <v>5.595262</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>29</v>
       </c>
@@ -31813,7 +31658,7 @@
         <v>6.2476940000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>30</v>
       </c>
@@ -31865,7 +31710,7 @@
         <v>5.4821840000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>31</v>
       </c>
@@ -31917,7 +31762,7 @@
         <v>5.0506419999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>32</v>
       </c>
@@ -31969,7 +31814,7 @@
         <v>5.3053249999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>33</v>
       </c>
@@ -32021,7 +31866,7 @@
         <v>5.1605020000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>34</v>
       </c>
@@ -32073,7 +31918,7 @@
         <v>5.3437979999999996</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>35</v>
       </c>
@@ -32125,7 +31970,7 @@
         <v>4.7861589999999996</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>36</v>
       </c>
@@ -32177,7 +32022,7 @@
         <v>5.6278839999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>37</v>
       </c>
@@ -32229,7 +32074,7 @@
         <v>5.1716199999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>38</v>
       </c>
@@ -32281,7 +32126,7 @@
         <v>5.0550309999999996</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>39</v>
       </c>
@@ -32333,7 +32178,7 @@
         <v>5.7648070000000002</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>40</v>
       </c>
@@ -32385,7 +32230,7 @@
         <v>5.0169969999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>41</v>
       </c>
@@ -32437,7 +32282,7 @@
         <v>5.3083970000000003</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>42</v>
       </c>
@@ -32489,7 +32334,7 @@
         <v>5.0731700000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>43</v>
       </c>
@@ -32541,7 +32386,7 @@
         <v>5.9615600000000004</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>44</v>
       </c>
@@ -32593,7 +32438,7 @@
         <v>5.4511710000000004</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>45</v>
       </c>
@@ -32645,7 +32490,7 @@
         <v>5.8787630000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>46</v>
       </c>
@@ -32697,7 +32542,7 @@
         <v>5.8495059999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>47</v>
       </c>
@@ -32749,7 +32594,7 @@
         <v>6.5875139999999996</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>48</v>
       </c>
@@ -32801,7 +32646,7 @@
         <v>5.5389419999999996</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>49</v>
       </c>
@@ -32853,7 +32698,7 @@
         <v>4.844087</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>50</v>
       </c>
@@ -32905,7 +32750,7 @@
         <v>5.1245159999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>51</v>
       </c>
@@ -32957,7 +32802,7 @@
         <v>5.4031890000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>52</v>
       </c>
@@ -33009,7 +32854,7 @@
         <v>5.6648940000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>53</v>
       </c>
@@ -33061,7 +32906,7 @@
         <v>4.7650930000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>54</v>
       </c>
@@ -33113,7 +32958,7 @@
         <v>5.0269440000000003</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>55</v>
       </c>
@@ -33165,7 +33010,7 @@
         <v>4.957605</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>56</v>
       </c>
@@ -33217,7 +33062,7 @@
         <v>5.3765660000000004</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>57</v>
       </c>
@@ -33269,7 +33114,7 @@
         <v>5.971069</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>58</v>
       </c>
@@ -33321,7 +33166,7 @@
         <v>4.8477439999999996</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>59</v>
       </c>
@@ -33373,7 +33218,7 @@
         <v>5.0218239999999996</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>60</v>
       </c>
@@ -33425,7 +33270,7 @@
         <v>6.3287360000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>61</v>
       </c>
@@ -33477,7 +33322,7 @@
         <v>4.8995300000000004</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>62</v>
       </c>
@@ -33529,7 +33374,7 @@
         <v>9.4198880000000003</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>63</v>
       </c>
@@ -33581,7 +33426,7 @@
         <v>5.7374510000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>64</v>
       </c>
@@ -33633,7 +33478,7 @@
         <v>5.2602690000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>65</v>
       </c>
@@ -33685,7 +33530,7 @@
         <v>5.6827399999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>66</v>
       </c>
@@ -33737,7 +33582,7 @@
         <v>4.9088919999999998</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>67</v>
       </c>
@@ -33789,7 +33634,7 @@
         <v>5.6252500000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>68</v>
       </c>
@@ -33841,7 +33686,7 @@
         <v>4.8170250000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>69</v>
       </c>
@@ -33893,7 +33738,7 @@
         <v>5.4242540000000004</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>70</v>
       </c>
@@ -33945,7 +33790,7 @@
         <v>5.0512269999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>71</v>
       </c>
@@ -33997,7 +33842,7 @@
         <v>6.0648369999999998</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>72</v>
       </c>
@@ -34049,7 +33894,7 @@
         <v>5.1594790000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>73</v>
       </c>
@@ -34101,7 +33946,7 @@
         <v>5.9788220000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B75">
         <v>74</v>
       </c>
@@ -34153,7 +33998,7 @@
         <v>5.6387090000000004</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>75</v>
       </c>
@@ -34205,7 +34050,7 @@
         <v>5.2048269999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>76</v>
       </c>
@@ -34257,7 +34102,7 @@
         <v>5.2184309999999998</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>77</v>
       </c>
@@ -34309,7 +34154,7 @@
         <v>5.1483610000000004</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B79">
         <v>78</v>
       </c>
@@ -34361,7 +34206,7 @@
         <v>7.1556860000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>79</v>
       </c>
@@ -34413,7 +34258,7 @@
         <v>4.6925359999999996</v>
       </c>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>80</v>
       </c>
@@ -34465,7 +34310,7 @@
         <v>4.4682810000000002</v>
       </c>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>81</v>
       </c>
@@ -34517,7 +34362,7 @@
         <v>4.6656190000000004</v>
       </c>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>82</v>
       </c>
@@ -34569,7 +34414,7 @@
         <v>5.5478649999999998</v>
       </c>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>83</v>
       </c>
@@ -34621,7 +34466,7 @@
         <v>5.8127880000000003</v>
       </c>
     </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>84</v>
       </c>
@@ -34673,7 +34518,7 @@
         <v>4.6743969999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>85</v>
       </c>
@@ -34725,7 +34570,7 @@
         <v>5.7558829999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>86</v>
       </c>
@@ -34777,7 +34622,7 @@
         <v>6.5772740000000001</v>
       </c>
     </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>87</v>
       </c>
@@ -34829,7 +34674,7 @@
         <v>5.1474830000000003</v>
       </c>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>88</v>
       </c>
@@ -34881,7 +34726,7 @@
         <v>4.929665</v>
       </c>
     </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>89</v>
       </c>
@@ -34933,7 +34778,7 @@
         <v>4.7615829999999999</v>
       </c>
     </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>90</v>
       </c>
@@ -34985,7 +34830,7 @@
         <v>5.8884169999999996</v>
       </c>
     </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>91</v>
       </c>
@@ -35037,7 +34882,7 @@
         <v>4.6246600000000004</v>
       </c>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>92</v>
       </c>
@@ -35089,7 +34934,7 @@
         <v>7.5752319999999997</v>
       </c>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>93</v>
       </c>
@@ -35141,7 +34986,7 @@
         <v>4.8723200000000002</v>
       </c>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>94</v>
       </c>
@@ -35193,7 +35038,7 @@
         <v>5.1907829999999997</v>
       </c>
     </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>95</v>
       </c>
@@ -35245,7 +35090,7 @@
         <v>5.6341739999999998</v>
       </c>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>96</v>
       </c>
@@ -35297,7 +35142,7 @@
         <v>6.7528170000000003</v>
       </c>
     </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>97</v>
       </c>
@@ -35349,7 +35194,7 @@
         <v>4.9248370000000001</v>
       </c>
     </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>98</v>
       </c>
@@ -35401,7 +35246,7 @@
         <v>6.6948879999999997</v>
       </c>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>99</v>
       </c>
@@ -35453,7 +35298,7 @@
         <v>8.7646770000000007</v>
       </c>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>100</v>
       </c>
@@ -35505,7 +35350,7 @@
         <v>7.134036</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>4</v>
       </c>
